--- a/AAII_Financials/Yearly/ELVN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ELVN_YR_FIN.xlsx
@@ -1481,7 +1481,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>88200</v>
+        <v>75500</v>
       </c>
       <c r="E41" s="3">
         <v>48300</v>
@@ -1589,7 +1589,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
         <v>2400</v>
@@ -1616,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>89600</v>
+        <v>77800</v>
       </c>
       <c r="E46" s="3">
         <v>92700</v>
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
@@ -1778,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>6400</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
@@ -1832,7 +1832,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92000</v>
+        <v>83300</v>
       </c>
       <c r="E54" s="3">
         <v>93600</v>
@@ -1885,7 +1885,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
@@ -1939,7 +1939,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1700</v>
+        <v>6600</v>
       </c>
       <c r="E59" s="3">
         <v>4800</v>
@@ -1966,7 +1966,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>9700</v>
       </c>
       <c r="E60" s="3">
         <v>7200</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -2128,7 +2128,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>10400</v>
       </c>
       <c r="E66" s="3">
         <v>7600</v>
@@ -2222,7 +2222,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>149700</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-146000</v>
+        <v>-82900</v>
       </c>
       <c r="E72" s="3">
         <v>-147500</v>
@@ -2384,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>90100</v>
+        <v>-76800</v>
       </c>
       <c r="E76" s="3">
         <v>86000</v>
